--- a/CPU Board Connections.xlsx
+++ b/CPU Board Connections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Other\A1200+\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A5AFDB-466A-46B0-BE47-89EE06C41515}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F93E9E-A23F-4481-A43A-11ED40145744}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{A9549603-26D7-4044-842A-4C70B8852FDF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="207">
   <si>
     <t>Connector #</t>
   </si>
@@ -573,9 +573,6 @@
     <t>Input to indicate old style Gayle</t>
   </si>
   <si>
-    <t>28Mhz</t>
-  </si>
-  <si>
     <t>14Mhz</t>
   </si>
   <si>
@@ -628,6 +625,27 @@
   </si>
   <si>
     <t>3.3V TTL</t>
+  </si>
+  <si>
+    <t>CAS_XX_</t>
+  </si>
+  <si>
+    <t>LISA CAS</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>3.3V</t>
+  </si>
+  <si>
+    <t>1.8V</t>
+  </si>
+  <si>
+    <t>Power +3.3 Volt</t>
+  </si>
+  <si>
+    <t>Power +1.8 Volt</t>
   </si>
 </sst>
 </file>
@@ -683,7 +701,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -721,24 +739,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDFE2E5"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDFE2E5"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFDFE2E5"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -759,13 +764,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1080,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD940F6B-FA36-4DFA-B591-1D07BC66E517}">
-  <dimension ref="A1:H191"/>
+  <dimension ref="A1:H193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="E176" sqref="E176:E180"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="E187" sqref="E187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1889,7 +1890,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="B72">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>82</v>
@@ -1900,7 +1901,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="B73">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>84</v>
@@ -1911,7 +1912,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="B74">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>86</v>
@@ -1922,7 +1923,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="B75">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>88</v>
@@ -1933,7 +1934,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="B76">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>95</v>
@@ -1944,7 +1945,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="B77">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>96</v>
@@ -1955,7 +1956,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="B78">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>89</v>
@@ -1966,7 +1967,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="B79">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>92</v>
@@ -1977,7 +1978,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="B80">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>93</v>
@@ -1988,7 +1989,7 @@
     </row>
     <row r="81" spans="2:4">
       <c r="B81">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>94</v>
@@ -1999,7 +2000,7 @@
     </row>
     <row r="82" spans="2:4">
       <c r="B82">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>70</v>
@@ -2010,7 +2011,7 @@
     </row>
     <row r="83" spans="2:4">
       <c r="B83">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>97</v>
@@ -2021,7 +2022,7 @@
     </row>
     <row r="84" spans="2:4">
       <c r="B84">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>99</v>
@@ -2032,7 +2033,7 @@
     </row>
     <row r="85" spans="2:4">
       <c r="B85">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>102</v>
@@ -2043,7 +2044,7 @@
     </row>
     <row r="86" spans="2:4">
       <c r="B86">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>103</v>
@@ -2054,7 +2055,7 @@
     </row>
     <row r="87" spans="2:4">
       <c r="B87">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>70</v>
@@ -2065,7 +2066,7 @@
     </row>
     <row r="88" spans="2:4">
       <c r="B88">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>104</v>
@@ -2076,7 +2077,7 @@
     </row>
     <row r="89" spans="2:4">
       <c r="B89">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>106</v>
@@ -2087,7 +2088,7 @@
     </row>
     <row r="90" spans="2:4">
       <c r="B90">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>108</v>
@@ -2098,7 +2099,7 @@
     </row>
     <row r="91" spans="2:4">
       <c r="B91">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>110</v>
@@ -2109,7 +2110,7 @@
     </row>
     <row r="92" spans="2:4">
       <c r="B92">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>112</v>
@@ -2120,7 +2121,7 @@
     </row>
     <row r="93" spans="2:4">
       <c r="B93">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>70</v>
@@ -2131,7 +2132,7 @@
     </row>
     <row r="94" spans="2:4">
       <c r="B94">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>114</v>
@@ -2142,7 +2143,7 @@
     </row>
     <row r="95" spans="2:4">
       <c r="B95">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>115</v>
@@ -2153,7 +2154,7 @@
     </row>
     <row r="96" spans="2:4">
       <c r="B96">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>116</v>
@@ -2164,7 +2165,7 @@
     </row>
     <row r="97" spans="2:4">
       <c r="B97">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>117</v>
@@ -2175,7 +2176,7 @@
     </row>
     <row r="98" spans="2:4">
       <c r="B98">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>118</v>
@@ -2186,7 +2187,7 @@
     </row>
     <row r="99" spans="2:4">
       <c r="B99">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>119</v>
@@ -2197,7 +2198,7 @@
     </row>
     <row r="100" spans="2:4">
       <c r="B100">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>120</v>
@@ -2208,7 +2209,7 @@
     </row>
     <row r="101" spans="2:4">
       <c r="B101">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>121</v>
@@ -2219,7 +2220,7 @@
     </row>
     <row r="102" spans="2:4">
       <c r="B102">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>122</v>
@@ -2230,7 +2231,7 @@
     </row>
     <row r="103" spans="2:4">
       <c r="B103">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>123</v>
@@ -2241,7 +2242,7 @@
     </row>
     <row r="104" spans="2:4">
       <c r="B104">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>124</v>
@@ -2252,7 +2253,7 @@
     </row>
     <row r="105" spans="2:4">
       <c r="B105">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>125</v>
@@ -2263,7 +2264,7 @@
     </row>
     <row r="106" spans="2:4">
       <c r="B106">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>126</v>
@@ -2274,7 +2275,7 @@
     </row>
     <row r="107" spans="2:4">
       <c r="B107">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>127</v>
@@ -2285,7 +2286,7 @@
     </row>
     <row r="108" spans="2:4">
       <c r="B108">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>128</v>
@@ -2296,7 +2297,7 @@
     </row>
     <row r="109" spans="2:4">
       <c r="B109">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>129</v>
@@ -2307,7 +2308,7 @@
     </row>
     <row r="110" spans="2:4">
       <c r="B110">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>130</v>
@@ -2318,7 +2319,7 @@
     </row>
     <row r="111" spans="2:4">
       <c r="B111">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>131</v>
@@ -2329,7 +2330,7 @@
     </row>
     <row r="112" spans="2:4">
       <c r="B112">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>132</v>
@@ -2338,9 +2339,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="2:4">
       <c r="B113">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>133</v>
@@ -2349,9 +2350,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="2:4">
       <c r="B114">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>134</v>
@@ -2360,9 +2361,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="2:4">
       <c r="B115">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>135</v>
@@ -2371,9 +2372,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="2:4">
       <c r="B116">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>136</v>
@@ -2382,9 +2383,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="2:4">
       <c r="B117">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>137</v>
@@ -2393,9 +2394,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="2:4">
       <c r="B118">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>138</v>
@@ -2404,9 +2405,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="2:4">
       <c r="B119">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>139</v>
@@ -2415,9 +2416,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="2:4">
       <c r="B120">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>140</v>
@@ -2426,9 +2427,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="2:4">
       <c r="B121">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>141</v>
@@ -2437,9 +2438,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="2:4">
       <c r="B122">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>142</v>
@@ -2448,9 +2449,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="2:4">
       <c r="B123">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>143</v>
@@ -2459,9 +2460,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="2:4">
       <c r="B124">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>144</v>
@@ -2470,9 +2471,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="2:4">
       <c r="B125">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>145</v>
@@ -2481,56 +2482,56 @@
         <v>146</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="2:4">
       <c r="B126">
+        <v>61</v>
+      </c>
+      <c r="C126" t="s">
+        <v>70</v>
+      </c>
+      <c r="D126" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4">
+      <c r="B127">
+        <v>62</v>
+      </c>
+      <c r="C127" t="s">
+        <v>200</v>
+      </c>
+      <c r="D127" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4">
+      <c r="B128">
         <v>63</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C128" t="s">
         <v>70</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="D128" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
-      <c r="B127">
+    <row r="129" spans="1:4">
+      <c r="B129">
         <v>64</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C129" t="s">
         <v>70</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D129" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
-      <c r="A128">
+    <row r="130" spans="1:4">
+      <c r="A130">
         <v>3</v>
       </c>
-      <c r="B128">
+      <c r="B130">
         <v>1</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D128" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="129" spans="2:4">
-      <c r="B129">
-        <v>2</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D129" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="130" spans="2:4">
-      <c r="B130">
-        <v>3</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>147</v>
@@ -2539,9 +2540,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="131" spans="2:4">
+    <row r="131" spans="1:4">
       <c r="B131">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>147</v>
@@ -2550,9 +2551,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="132" spans="2:4">
+    <row r="132" spans="1:4">
       <c r="B132">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>147</v>
@@ -2561,9 +2562,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="133" spans="2:4">
+    <row r="133" spans="1:4">
       <c r="B133">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>147</v>
@@ -2572,31 +2573,31 @@
         <v>148</v>
       </c>
     </row>
-    <row r="134" spans="2:4">
+    <row r="134" spans="1:4">
       <c r="B134">
+        <v>5</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D134" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="B135">
+        <v>6</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D135" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="B136">
         <v>7</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D134" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="135" spans="2:4">
-      <c r="B135">
-        <v>8</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D135" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="136" spans="2:4">
-      <c r="B136">
-        <v>9</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>70</v>
@@ -2605,9 +2606,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="137" spans="2:4">
+    <row r="137" spans="1:4">
       <c r="B137">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>70</v>
@@ -2616,9 +2617,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="138" spans="2:4">
+    <row r="138" spans="1:4">
       <c r="B138">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>70</v>
@@ -2627,9 +2628,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="139" spans="2:4">
+    <row r="139" spans="1:4">
       <c r="B139">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>70</v>
@@ -2638,56 +2639,56 @@
         <v>71</v>
       </c>
     </row>
-    <row r="140" spans="2:4">
+    <row r="140" spans="1:4">
       <c r="B140">
+        <v>11</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D140" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="B141">
+        <v>12</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D141" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="B142">
         <v>13</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C142" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="D140" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="141" spans="2:4">
-      <c r="B141">
-        <v>14</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D141" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="142" spans="2:4">
-      <c r="B142">
-        <v>15</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="D142" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="143" spans="2:4">
+    <row r="143" spans="1:4">
       <c r="B143">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D143" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="144" spans="2:4">
+    <row r="144" spans="1:4">
       <c r="B144">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D144" t="s">
         <v>159</v>
@@ -2695,10 +2696,10 @@
     </row>
     <row r="145" spans="2:5">
       <c r="B145">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D145" t="s">
         <v>159</v>
@@ -2706,10 +2707,10 @@
     </row>
     <row r="146" spans="2:5">
       <c r="B146">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D146" t="s">
         <v>159</v>
@@ -2717,10 +2718,10 @@
     </row>
     <row r="147" spans="2:5">
       <c r="B147">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D147" t="s">
         <v>159</v>
@@ -2728,10 +2729,10 @@
     </row>
     <row r="148" spans="2:5">
       <c r="B148">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D148" t="s">
         <v>159</v>
@@ -2739,10 +2740,10 @@
     </row>
     <row r="149" spans="2:5">
       <c r="B149">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D149" t="s">
         <v>159</v>
@@ -2750,107 +2751,101 @@
     </row>
     <row r="150" spans="2:5">
       <c r="B150">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D150" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="151" spans="2:5">
       <c r="B151">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D151" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="152" spans="2:5">
       <c r="B152">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D152" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="153" spans="2:5">
       <c r="B153">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D153" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="154" spans="2:5">
       <c r="B154">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D154" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="155" spans="2:5">
       <c r="B155">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="D155" t="s">
-        <v>71</v>
+        <v>168</v>
       </c>
     </row>
     <row r="156" spans="2:5">
       <c r="B156">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D156" t="s">
-        <v>171</v>
-      </c>
-      <c r="E156" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="157" spans="2:5">
       <c r="B157">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>172</v>
+        <v>70</v>
       </c>
       <c r="D157" t="s">
-        <v>174</v>
-      </c>
-      <c r="E157" t="s">
-        <v>176</v>
+        <v>71</v>
       </c>
     </row>
     <row r="158" spans="2:5">
       <c r="B158">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D158" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E158" t="s">
         <v>176</v>
@@ -2858,13 +2853,13 @@
     </row>
     <row r="159" spans="2:5">
       <c r="B159">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D159" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E159" t="s">
         <v>176</v>
@@ -2872,13 +2867,13 @@
     </row>
     <row r="160" spans="2:5">
       <c r="B160">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D160" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E160" t="s">
         <v>176</v>
@@ -2886,352 +2881,380 @@
     </row>
     <row r="161" spans="2:8">
       <c r="B161">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D161" t="s">
-        <v>181</v>
+        <v>179</v>
+      </c>
+      <c r="E161" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="162" spans="2:8">
       <c r="B162">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="D162" t="s">
-        <v>71</v>
+        <v>179</v>
+      </c>
+      <c r="E162" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="163" spans="2:8">
       <c r="B163">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D163" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="164" spans="2:8">
       <c r="B164">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>183</v>
+        <v>70</v>
       </c>
       <c r="D164" t="s">
-        <v>185</v>
-      </c>
-      <c r="E164" t="s">
-        <v>186</v>
+        <v>71</v>
       </c>
     </row>
     <row r="165" spans="2:8">
       <c r="B165">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>70</v>
+        <v>202</v>
       </c>
       <c r="D165" t="s">
-        <v>71</v>
+        <v>183</v>
       </c>
     </row>
     <row r="166" spans="2:8">
       <c r="B166">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D166" t="s">
-        <v>190</v>
+        <v>184</v>
+      </c>
+      <c r="E166" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="167" spans="2:8">
       <c r="B167">
+        <v>38</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D167" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8">
+      <c r="B168">
+        <v>39</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D168" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8">
+      <c r="B169">
         <v>40</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C169" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D169" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B170">
+        <v>41</v>
+      </c>
+      <c r="C170" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D170" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="168" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B168">
-        <v>41</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D168" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="169" spans="2:8" ht="18" thickBot="1">
-      <c r="B169">
+    <row r="171" spans="2:8" ht="18" thickBot="1">
+      <c r="B171">
         <v>42</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C171" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D171" t="s">
         <v>71</v>
       </c>
-      <c r="F169" s="4"/>
-      <c r="G169" s="4"/>
-      <c r="H169" s="4"/>
-    </row>
-    <row r="170" spans="2:8" ht="18" thickBot="1">
-      <c r="B170">
-        <v>43</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D170" t="s">
-        <v>198</v>
-      </c>
-      <c r="E170" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="171" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B171">
-        <v>44</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D171" t="s">
-        <v>198</v>
-      </c>
-      <c r="E171" t="s">
-        <v>200</v>
-      </c>
+      <c r="F171" s="4"/>
+      <c r="G171" s="4"/>
+      <c r="H171" s="4"/>
     </row>
     <row r="172" spans="2:8" ht="18" thickBot="1">
       <c r="B172">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D172" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E172" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="173" spans="2:8" ht="18" thickBot="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" ht="15.75" thickBot="1">
       <c r="B173">
-        <v>46</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>195</v>
+        <v>44</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="D173" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E173" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="174" spans="2:8" ht="18" thickBot="1">
       <c r="B174">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D174" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E174" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="175" spans="2:8" ht="18" thickBot="1">
       <c r="B175">
-        <v>48</v>
-      </c>
-      <c r="C175" s="7" t="s">
-        <v>70</v>
+        <v>46</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>194</v>
       </c>
       <c r="D175" t="s">
-        <v>71</v>
+        <v>197</v>
+      </c>
+      <c r="E175" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="176" spans="2:8" ht="18" thickBot="1">
       <c r="B176">
+        <v>47</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D176" t="s">
+        <v>197</v>
+      </c>
+      <c r="E176" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" ht="18" thickBot="1">
+      <c r="B177">
+        <v>48</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D177" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" ht="18" thickBot="1">
+      <c r="B178">
         <v>49</v>
       </c>
-      <c r="C176" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D176" t="s">
+      <c r="C178" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D178" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4">
+      <c r="B179">
+        <v>50</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D179" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" ht="15.75" thickBot="1">
+      <c r="B180">
+        <v>51</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D180" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" ht="18" thickBot="1">
+      <c r="B181">
+        <v>52</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D181" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" ht="18" thickBot="1">
+      <c r="B182">
+        <v>53</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D182" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" ht="18" thickBot="1">
+      <c r="B183">
+        <v>54</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D183" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" ht="17.25">
+      <c r="B184">
+        <v>55</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D184" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" ht="17.25">
+      <c r="B185">
+        <v>56</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D185" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" ht="17.25">
+      <c r="B186">
+        <v>57</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D186" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" ht="17.25">
+      <c r="B187">
+        <v>58</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D187" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" ht="17.25">
+      <c r="B188">
+        <v>59</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D188" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" ht="17.25">
+      <c r="B189">
+        <v>60</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D189" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" ht="17.25">
+      <c r="B190">
+        <v>61</v>
+      </c>
+      <c r="C190" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="E176" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="177" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B177">
-        <v>50</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D177" t="s">
+    </row>
+    <row r="191" spans="2:4" ht="17.25">
+      <c r="B191">
+        <v>62</v>
+      </c>
+      <c r="C191" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="E177" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="178" spans="2:5" ht="18" thickBot="1">
-      <c r="B178">
-        <v>51</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D178" t="s">
+    </row>
+    <row r="192" spans="2:4" ht="17.25">
+      <c r="B192">
+        <v>63</v>
+      </c>
+      <c r="C192" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="E178" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="179" spans="2:5" ht="18" thickBot="1">
-      <c r="B179">
-        <v>52</v>
-      </c>
-      <c r="C179" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D179" t="s">
+    </row>
+    <row r="193" spans="2:3" ht="17.25">
+      <c r="B193">
+        <v>64</v>
+      </c>
+      <c r="C193" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="E179" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="180" spans="2:5" ht="17.25">
-      <c r="B180">
-        <v>53</v>
-      </c>
-      <c r="C180" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D180" t="s">
-        <v>198</v>
-      </c>
-      <c r="E180" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="181" spans="2:5" ht="17.25">
-      <c r="B181">
-        <v>54</v>
-      </c>
-      <c r="C181" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D181" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="182" spans="2:5" ht="17.25">
-      <c r="B182">
-        <v>55</v>
-      </c>
-      <c r="C182" s="9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="183" spans="2:5" ht="17.25">
-      <c r="B183">
-        <v>56</v>
-      </c>
-      <c r="C183" s="9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="184" spans="2:5" ht="17.25">
-      <c r="B184">
-        <v>57</v>
-      </c>
-      <c r="C184" s="9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="185" spans="2:5" ht="17.25">
-      <c r="B185">
-        <v>58</v>
-      </c>
-      <c r="C185" s="9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="186" spans="2:5" ht="17.25">
-      <c r="B186">
-        <v>59</v>
-      </c>
-      <c r="C186" s="9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="187" spans="2:5" ht="17.25">
-      <c r="B187">
-        <v>60</v>
-      </c>
-      <c r="C187" s="9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="188" spans="2:5" ht="17.25">
-      <c r="B188">
-        <v>61</v>
-      </c>
-      <c r="C188" s="9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="189" spans="2:5" ht="17.25">
-      <c r="B189">
-        <v>62</v>
-      </c>
-      <c r="C189" s="9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="190" spans="2:5" ht="17.25">
-      <c r="B190">
-        <v>63</v>
-      </c>
-      <c r="C190" s="9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="191" spans="2:5">
-      <c r="B191">
-        <v>64</v>
-      </c>
-      <c r="C191" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D191" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
